--- a/parabolic/2025/09/17/parabolic.xlsx
+++ b/parabolic/2025/09/17/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="D2" t="n">
-        <v>225700</v>
+        <v>396400</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D3" t="n">
-        <v>119400</v>
+        <v>162600</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D4" t="n">
-        <v>335100</v>
+        <v>417600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>839</v>
+        <v>809</v>
       </c>
       <c r="D5" t="n">
-        <v>379000</v>
+        <v>509200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>182</v>
       </c>
       <c r="D6" t="n">
-        <v>376500</v>
+        <v>400000</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D7" t="n">
-        <v>2050700</v>
+        <v>2872700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
         <v>141</v>
       </c>
       <c r="D8" t="n">
-        <v>5771900</v>
+        <v>6144100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" t="n">
-        <v>133400</v>
+        <v>163600</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6334</t>
+          <t>5707</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>320</v>
+        <v>678</v>
       </c>
       <c r="D10" t="n">
-        <v>109900</v>
+        <v>111000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>6334</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="D11" t="n">
-        <v>428500</v>
+        <v>146000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7707</t>
+          <t>6775</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="D12" t="n">
-        <v>9468900</v>
+        <v>471300</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>7707</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,16 +735,39 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>933</v>
+        <v>263</v>
       </c>
       <c r="D13" t="n">
-        <v>7413000</v>
+        <v>15837300</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>956</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9024600</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/17/parabolic.xlsx
+++ b/parabolic/2025/09/17/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>991</v>
       </c>
       <c r="D2" t="n">
-        <v>396400</v>
+        <v>465800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" t="n">
-        <v>162600</v>
+        <v>183200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D4" t="n">
-        <v>417600</v>
+        <v>590900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D5" t="n">
-        <v>509200</v>
+        <v>570100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" t="n">
-        <v>400000</v>
+        <v>516800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4558</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>219</v>
+        <v>624</v>
       </c>
       <c r="D7" t="n">
-        <v>2872700</v>
+        <v>132500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>4558</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="D8" t="n">
-        <v>6144100</v>
+        <v>3070300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4714</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="D9" t="n">
-        <v>163600</v>
+        <v>6393000</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>4714</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>678</v>
+        <v>225</v>
       </c>
       <c r="D10" t="n">
-        <v>111000</v>
+        <v>213400</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6334</t>
+          <t>5707</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>322</v>
+        <v>679</v>
       </c>
       <c r="D11" t="n">
-        <v>146000</v>
+        <v>150500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>6334</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="D12" t="n">
-        <v>471300</v>
+        <v>169000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7707</t>
+          <t>6775</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="D13" t="n">
-        <v>15837300</v>
+        <v>567800</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>6840</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,16 +758,131 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>956</v>
+        <v>339</v>
       </c>
       <c r="D14" t="n">
-        <v>9024600</v>
+        <v>112600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>7354</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>299</v>
+      </c>
+      <c r="D15" t="n">
+        <v>112800</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>7707</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>236</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20136100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>8622</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>565</v>
+      </c>
+      <c r="D17" t="n">
+        <v>128300</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9067</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>651</v>
+      </c>
+      <c r="D18" t="n">
+        <v>111700</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>957</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10945800</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/17/parabolic.xlsx
+++ b/parabolic/2025/09/17/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D2" t="n">
-        <v>465800</v>
+        <v>589200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>159</v>
+        <v>987</v>
       </c>
       <c r="D3" t="n">
-        <v>183200</v>
+        <v>225200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3665</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>404</v>
+        <v>158</v>
       </c>
       <c r="D4" t="n">
-        <v>590900</v>
+        <v>210400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4166</t>
+          <t>3665</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>808</v>
+        <v>410</v>
       </c>
       <c r="D5" t="n">
-        <v>570100</v>
+        <v>766800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4344</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>181</v>
+        <v>803</v>
       </c>
       <c r="D6" t="n">
-        <v>516800</v>
+        <v>633100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>624</v>
+        <v>544</v>
       </c>
       <c r="D7" t="n">
-        <v>132500</v>
+        <v>950500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4558</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D8" t="n">
-        <v>3070300</v>
+        <v>651500</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>142</v>
+        <v>627</v>
       </c>
       <c r="D9" t="n">
-        <v>6393000</v>
+        <v>188200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4714</t>
+          <t>4558</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D10" t="n">
-        <v>213400</v>
+        <v>3182300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>679</v>
+        <v>142</v>
       </c>
       <c r="D11" t="n">
-        <v>150500</v>
+        <v>6568700</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6334</t>
+          <t>4714</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="D12" t="n">
-        <v>169000</v>
+        <v>275800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>5707</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>139</v>
+        <v>671</v>
       </c>
       <c r="D13" t="n">
-        <v>567800</v>
+        <v>190400</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6840</t>
+          <t>6334</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D14" t="n">
-        <v>112600</v>
+        <v>225300</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7354</t>
+          <t>6775</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>299</v>
+        <v>142</v>
       </c>
       <c r="D15" t="n">
-        <v>112800</v>
+        <v>615700</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7707</t>
+          <t>6840</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>236</v>
+        <v>337</v>
       </c>
       <c r="D16" t="n">
-        <v>20136100</v>
+        <v>126000</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8622</t>
+          <t>7354</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>565</v>
+        <v>298</v>
       </c>
       <c r="D17" t="n">
-        <v>128300</v>
+        <v>169000</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9067</t>
+          <t>7707</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>651</v>
+        <v>230</v>
       </c>
       <c r="D18" t="n">
-        <v>111700</v>
+        <v>22870800</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>8622</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,16 +873,62 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>957</v>
+        <v>562</v>
       </c>
       <c r="D19" t="n">
-        <v>10945800</v>
+        <v>164800</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9067</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>659</v>
+      </c>
+      <c r="D20" t="n">
+        <v>153700</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>941</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12539700</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
